--- a/Autumn_term/Network Analytics/HW2/NETWORK THEORY2.xlsx
+++ b/Autumn_term/Network Analytics/HW2/NETWORK THEORY2.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28109"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Veronique/Documents/GitHub/preparation/Autumn_term/Network Analytics/HW2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$D$37:$V$37</definedName>
@@ -85,9 +86,15 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -95,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="70">
   <si>
     <t xml:space="preserve">Objective Function </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -380,19 +387,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -400,7 +407,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -408,7 +415,7 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -417,7 +424,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -426,13 +433,22 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,6 +467,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -489,7 +517,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -532,12 +560,696 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="143">
+  <dxfs count="186">
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -552,19 +1264,68 @@
         <sz val="18"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -572,9 +1333,60 @@
         <sz val="18"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -590,13 +1402,58 @@
         <sz val="18"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -614,13 +1471,58 @@
         <sz val="18"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -638,7 +1540,52 @@
         <sz val="18"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -662,7 +1609,52 @@
         <sz val="18"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -686,7 +1678,52 @@
         <sz val="18"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -710,7 +1747,52 @@
         <sz val="18"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -734,7 +1816,52 @@
         <sz val="18"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -758,7 +1885,52 @@
         <sz val="18"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -782,7 +1954,52 @@
         <sz val="18"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -806,7 +2023,52 @@
         <sz val="18"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -830,7 +2092,52 @@
         <sz val="18"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -854,7 +2161,52 @@
         <sz val="18"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -878,7 +2230,52 @@
         <sz val="18"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -902,7 +2299,52 @@
         <sz val="18"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -926,7 +2368,52 @@
         <sz val="18"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -950,7 +2437,52 @@
         <sz val="18"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -974,7 +2506,52 @@
         <sz val="18"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -998,13 +2575,58 @@
         <sz val="18"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1022,13 +2644,58 @@
         <sz val="18"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1046,13 +2713,58 @@
         <sz val="18"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1070,23 +2782,41 @@
         <sz val="18"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1094,15 +2824,8 @@
         <sz val="18"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1118,13 +2841,12 @@
         <sz val="18"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1142,1159 +2864,16 @@
         <sz val="18"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2313,30 +2892,28 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2351,8 +2928,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -2389,7 +2964,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -2426,7 +3000,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -2463,7 +3036,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -2500,7 +3072,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -2537,7 +3108,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -2574,7 +3144,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -2611,7 +3180,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -2648,7 +3216,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -2685,7 +3252,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -2722,7 +3288,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -2759,7 +3324,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -2796,7 +3360,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -2833,7 +3396,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -2870,7 +3432,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -2907,7 +3468,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -2944,7 +3504,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -2981,29 +3540,52 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3018,15 +3600,8 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -3039,9 +3614,14 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3054,136 +3634,8 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3205,61 +3657,84 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A9:V30" headerRowCount="0" headerRowDxfId="131" dataDxfId="129" totalsRowDxfId="130">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A9:V30" headerRowCount="0" headerRowDxfId="185" dataDxfId="184" totalsRowDxfId="183">
   <tableColumns count="22">
-    <tableColumn id="1" name="列1" totalsRowLabel="汇总" headerRowDxfId="140" dataDxfId="134" totalsRowDxfId="137"/>
-    <tableColumn id="2" name="列2" headerRowDxfId="141" dataDxfId="133" totalsRowDxfId="136"/>
-    <tableColumn id="3" name="列3" headerRowDxfId="142" dataDxfId="132" totalsRowDxfId="135"/>
-    <tableColumn id="4" name="列4" headerRowDxfId="127" dataDxfId="126" totalsRowDxfId="128"/>
-    <tableColumn id="5" name="列5" headerRowDxfId="124" dataDxfId="123" totalsRowDxfId="125"/>
-    <tableColumn id="6" name="列6" headerRowDxfId="121" dataDxfId="120" totalsRowDxfId="122"/>
-    <tableColumn id="7" name="列7" headerRowDxfId="118" dataDxfId="117" totalsRowDxfId="119"/>
-    <tableColumn id="8" name="列8" headerRowDxfId="115" dataDxfId="114" totalsRowDxfId="116"/>
-    <tableColumn id="9" name="列9" headerRowDxfId="112" dataDxfId="111" totalsRowDxfId="113"/>
-    <tableColumn id="10" name="列10" headerRowDxfId="109" dataDxfId="108" totalsRowDxfId="110"/>
-    <tableColumn id="11" name="列11" headerRowDxfId="106" dataDxfId="105" totalsRowDxfId="107"/>
-    <tableColumn id="12" name="列12" headerRowDxfId="103" dataDxfId="102" totalsRowDxfId="104"/>
-    <tableColumn id="13" name="列13" headerRowDxfId="100" dataDxfId="99" totalsRowDxfId="101"/>
-    <tableColumn id="14" name="列14" headerRowDxfId="97" dataDxfId="96" totalsRowDxfId="98"/>
-    <tableColumn id="15" name="列15" headerRowDxfId="94" dataDxfId="93" totalsRowDxfId="95"/>
-    <tableColumn id="16" name="列16" headerRowDxfId="91" dataDxfId="90" totalsRowDxfId="92"/>
-    <tableColumn id="17" name="列17" headerRowDxfId="88" dataDxfId="87" totalsRowDxfId="89"/>
-    <tableColumn id="18" name="列18" headerRowDxfId="85" dataDxfId="84" totalsRowDxfId="86"/>
-    <tableColumn id="19" name="列19" headerRowDxfId="82" dataDxfId="81" totalsRowDxfId="83"/>
-    <tableColumn id="20" name="列20" headerRowDxfId="79" dataDxfId="78" totalsRowDxfId="80"/>
-    <tableColumn id="22" name="列22" headerRowDxfId="76" dataDxfId="75" totalsRowDxfId="77"/>
-    <tableColumn id="23" name="列23" totalsRowFunction="count" headerRowDxfId="73" dataDxfId="72" totalsRowDxfId="74"/>
+    <tableColumn id="1" name="列1" totalsRowLabel="汇总" headerRowDxfId="182" dataDxfId="49"/>
+    <tableColumn id="2" name="列2" headerRowDxfId="181" dataDxfId="48"/>
+    <tableColumn id="3" name="列3" headerRowDxfId="180" dataDxfId="47" totalsRowDxfId="179"/>
+    <tableColumn id="4" name="列4" headerRowDxfId="178" dataDxfId="177" totalsRowDxfId="176"/>
+    <tableColumn id="5" name="列5" headerRowDxfId="175" dataDxfId="174" totalsRowDxfId="173"/>
+    <tableColumn id="6" name="列6" headerRowDxfId="172" dataDxfId="171" totalsRowDxfId="170"/>
+    <tableColumn id="7" name="列7" headerRowDxfId="169" dataDxfId="168" totalsRowDxfId="167"/>
+    <tableColumn id="8" name="列8" headerRowDxfId="166" dataDxfId="165" totalsRowDxfId="164"/>
+    <tableColumn id="9" name="列9" headerRowDxfId="163" dataDxfId="162" totalsRowDxfId="161"/>
+    <tableColumn id="10" name="列10" headerRowDxfId="160" dataDxfId="159" totalsRowDxfId="158"/>
+    <tableColumn id="11" name="列11" headerRowDxfId="157" dataDxfId="156" totalsRowDxfId="155"/>
+    <tableColumn id="12" name="列12" headerRowDxfId="154" dataDxfId="153" totalsRowDxfId="152"/>
+    <tableColumn id="13" name="列13" headerRowDxfId="151" dataDxfId="150" totalsRowDxfId="149"/>
+    <tableColumn id="14" name="列14" headerRowDxfId="148" dataDxfId="147" totalsRowDxfId="146"/>
+    <tableColumn id="15" name="列15" headerRowDxfId="145" dataDxfId="144" totalsRowDxfId="143"/>
+    <tableColumn id="16" name="列16" headerRowDxfId="142" dataDxfId="141" totalsRowDxfId="140"/>
+    <tableColumn id="17" name="列17" headerRowDxfId="139" dataDxfId="138" totalsRowDxfId="137"/>
+    <tableColumn id="18" name="列18" headerRowDxfId="136" dataDxfId="135" totalsRowDxfId="134"/>
+    <tableColumn id="19" name="列19" headerRowDxfId="133" dataDxfId="132" totalsRowDxfId="131"/>
+    <tableColumn id="20" name="列20" headerRowDxfId="130" dataDxfId="129" totalsRowDxfId="128"/>
+    <tableColumn id="22" name="列22" headerRowDxfId="127" dataDxfId="126" totalsRowDxfId="125"/>
+    <tableColumn id="23" name="列23" totalsRowFunction="count" headerRowDxfId="124" dataDxfId="123" totalsRowDxfId="122"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A34:W51" headerRowCount="0" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A34:W51" headerRowCount="0" headerRowDxfId="121" dataDxfId="120" totalsRowDxfId="119">
   <tableColumns count="23">
-    <tableColumn id="1" name="列1" totalsRowLabel="汇总" headerRowDxfId="49" dataDxfId="25" totalsRowDxfId="48"/>
-    <tableColumn id="2" name="列2" headerRowDxfId="50" dataDxfId="24" totalsRowDxfId="47"/>
-    <tableColumn id="3" name="列3" headerRowDxfId="51" dataDxfId="23" totalsRowDxfId="46"/>
-    <tableColumn id="4" name="列4" headerRowDxfId="52" dataDxfId="22" totalsRowDxfId="45"/>
-    <tableColumn id="5" name="列5" headerRowDxfId="53" dataDxfId="21" totalsRowDxfId="44"/>
-    <tableColumn id="6" name="列6" headerRowDxfId="54" dataDxfId="20" totalsRowDxfId="43"/>
-    <tableColumn id="7" name="列7" headerRowDxfId="55" dataDxfId="19" totalsRowDxfId="42"/>
-    <tableColumn id="8" name="列8" headerRowDxfId="56" dataDxfId="18" totalsRowDxfId="41"/>
-    <tableColumn id="9" name="列9" headerRowDxfId="57" dataDxfId="17" totalsRowDxfId="40"/>
-    <tableColumn id="10" name="列10" headerRowDxfId="58" dataDxfId="16" totalsRowDxfId="39"/>
-    <tableColumn id="11" name="列11" headerRowDxfId="59" dataDxfId="15" totalsRowDxfId="38"/>
-    <tableColumn id="12" name="列12" headerRowDxfId="60" dataDxfId="14" totalsRowDxfId="37"/>
-    <tableColumn id="13" name="列13" headerRowDxfId="61" dataDxfId="13" totalsRowDxfId="36"/>
-    <tableColumn id="14" name="列14" headerRowDxfId="62" dataDxfId="12" totalsRowDxfId="35"/>
-    <tableColumn id="15" name="列15" headerRowDxfId="63" dataDxfId="11" totalsRowDxfId="34"/>
-    <tableColumn id="16" name="列16" headerRowDxfId="64" dataDxfId="10" totalsRowDxfId="33"/>
-    <tableColumn id="17" name="列17" headerRowDxfId="65" dataDxfId="9" totalsRowDxfId="32"/>
-    <tableColumn id="18" name="列18" headerRowDxfId="66" dataDxfId="8" totalsRowDxfId="31"/>
-    <tableColumn id="19" name="列19" headerRowDxfId="67" dataDxfId="7" totalsRowDxfId="30"/>
-    <tableColumn id="20" name="列20" headerRowDxfId="68" dataDxfId="6" totalsRowDxfId="29"/>
-    <tableColumn id="21" name="列21" headerRowDxfId="69" dataDxfId="5" totalsRowDxfId="28"/>
-    <tableColumn id="22" name="列22" headerRowDxfId="70" dataDxfId="4" totalsRowDxfId="27"/>
-    <tableColumn id="23" name="列23" totalsRowFunction="sum" headerRowDxfId="71" dataDxfId="3" totalsRowDxfId="26"/>
+    <tableColumn id="1" name="列1" totalsRowLabel="汇总" headerRowDxfId="118" dataDxfId="117" totalsRowDxfId="116"/>
+    <tableColumn id="2" name="列2" headerRowDxfId="115" dataDxfId="114" totalsRowDxfId="113"/>
+    <tableColumn id="3" name="列3" headerRowDxfId="112" dataDxfId="111" totalsRowDxfId="110"/>
+    <tableColumn id="4" name="列4" headerRowDxfId="109" dataDxfId="108" totalsRowDxfId="107"/>
+    <tableColumn id="5" name="列5" headerRowDxfId="106" dataDxfId="105" totalsRowDxfId="104"/>
+    <tableColumn id="6" name="列6" headerRowDxfId="103" dataDxfId="102" totalsRowDxfId="101"/>
+    <tableColumn id="7" name="列7" headerRowDxfId="100" dataDxfId="99" totalsRowDxfId="98"/>
+    <tableColumn id="8" name="列8" headerRowDxfId="97" dataDxfId="96" totalsRowDxfId="95"/>
+    <tableColumn id="9" name="列9" headerRowDxfId="94" dataDxfId="93" totalsRowDxfId="92"/>
+    <tableColumn id="10" name="列10" headerRowDxfId="91" dataDxfId="90" totalsRowDxfId="89"/>
+    <tableColumn id="11" name="列11" headerRowDxfId="88" dataDxfId="87" totalsRowDxfId="86"/>
+    <tableColumn id="12" name="列12" headerRowDxfId="85" dataDxfId="84" totalsRowDxfId="83"/>
+    <tableColumn id="13" name="列13" headerRowDxfId="82" dataDxfId="81" totalsRowDxfId="80"/>
+    <tableColumn id="14" name="列14" headerRowDxfId="79" dataDxfId="78" totalsRowDxfId="77"/>
+    <tableColumn id="15" name="列15" headerRowDxfId="76" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="16" name="列16" headerRowDxfId="73" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="17" name="列17" headerRowDxfId="70" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="18" name="列18" headerRowDxfId="67" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="19" name="列19" headerRowDxfId="64" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="20" name="列20" headerRowDxfId="61" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="21" name="列21" headerRowDxfId="58" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="22" name="列22" headerRowDxfId="55" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="23" name="列23" totalsRowFunction="sum" headerRowDxfId="52" dataDxfId="51" totalsRowDxfId="50"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_4" displayName="表1_4" ref="A1:O22" headerRowCount="0" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1">
+  <tableColumns count="15">
+    <tableColumn id="1" name="列1" totalsRowLabel="汇总" headerRowDxfId="46" dataDxfId="17"/>
+    <tableColumn id="3" name="列3" headerRowDxfId="44" dataDxfId="16" totalsRowDxfId="45"/>
+    <tableColumn id="9" name="列9" headerRowDxfId="42" dataDxfId="15" totalsRowDxfId="43"/>
+    <tableColumn id="10" name="列10" headerRowDxfId="40" dataDxfId="14" totalsRowDxfId="41"/>
+    <tableColumn id="11" name="列11" headerRowDxfId="38" dataDxfId="13" totalsRowDxfId="39"/>
+    <tableColumn id="12" name="列12" headerRowDxfId="36" dataDxfId="12" totalsRowDxfId="37"/>
+    <tableColumn id="13" name="列13" headerRowDxfId="34" dataDxfId="11" totalsRowDxfId="35"/>
+    <tableColumn id="14" name="列14" headerRowDxfId="32" dataDxfId="10" totalsRowDxfId="33"/>
+    <tableColumn id="15" name="列15" headerRowDxfId="30" dataDxfId="9" totalsRowDxfId="31"/>
+    <tableColumn id="16" name="列16" headerRowDxfId="28" dataDxfId="8" totalsRowDxfId="29"/>
+    <tableColumn id="17" name="列17" headerRowDxfId="26" dataDxfId="7" totalsRowDxfId="27"/>
+    <tableColumn id="18" name="列18" headerRowDxfId="24" dataDxfId="6" totalsRowDxfId="25"/>
+    <tableColumn id="19" name="列19" headerRowDxfId="22" dataDxfId="5" totalsRowDxfId="23"/>
+    <tableColumn id="20" name="列20" headerRowDxfId="20" dataDxfId="4" totalsRowDxfId="21"/>
+    <tableColumn id="23" name="列23" totalsRowFunction="count" headerRowDxfId="18" dataDxfId="3" totalsRowDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -3564,22 +4039,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A9:W61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="73" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:V30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="20" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="9" customWidth="1"/>
     <col min="23" max="23" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
@@ -3631,7 +4106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -3686,7 +4161,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -3712,7 +4187,7 @@
       <c r="U11" s="4"/>
       <c r="V11" s="3"/>
     </row>
-    <row r="12" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
@@ -3743,7 +4218,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
@@ -3774,7 +4249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="19" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
@@ -3805,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="19" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
@@ -3836,7 +4311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="19" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>39</v>
       </c>
@@ -3867,7 +4342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="19" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
@@ -3898,7 +4373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="19" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
@@ -3929,7 +4404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="19" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -3962,7 +4437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="19" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -3995,7 +4470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
@@ -4028,7 +4503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="19" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -4061,7 +4536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="19" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -4094,7 +4569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="19" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
@@ -4127,7 +4602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="19" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
@@ -4160,7 +4635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="19" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>21</v>
       </c>
@@ -4193,7 +4668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="19" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
@@ -4226,7 +4701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="19" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
@@ -4259,7 +4734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="19" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>21</v>
       </c>
@@ -4292,7 +4767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="19" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>21</v>
       </c>
@@ -4325,7 +4800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="24" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>44</v>
       </c>
@@ -4352,7 +4827,7 @@
       <c r="V34" s="5"/>
       <c r="W34" s="5"/>
     </row>
-    <row r="35" spans="1:23" ht="45.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="48" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
         <v>68</v>
       </c>
@@ -4383,7 +4858,7 @@
       <c r="V35" s="7"/>
       <c r="W35" s="5"/>
     </row>
-    <row r="36" spans="1:23" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="24" x14ac:dyDescent="0.2">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -4448,7 +4923,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="24" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -4514,7 +4989,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="24" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>15</v>
       </c>
@@ -4541,7 +5016,7 @@
       <c r="V38" s="2"/>
       <c r="W38" s="5"/>
     </row>
-    <row r="39" spans="1:23" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="24" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>53</v>
       </c>
@@ -4577,7 +5052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="24" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>54</v>
       </c>
@@ -4613,7 +5088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="24" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>55</v>
       </c>
@@ -4649,7 +5124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="24" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>56</v>
       </c>
@@ -4685,7 +5160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="24" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>65</v>
       </c>
@@ -4721,7 +5196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="24" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>57</v>
       </c>
@@ -4757,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="24" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>60</v>
       </c>
@@ -4793,7 +5268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="24" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>58</v>
       </c>
@@ -4829,7 +5304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="24" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>59</v>
       </c>
@@ -4865,7 +5340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="24" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>66</v>
       </c>
@@ -4901,7 +5376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" ht="24" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>61</v>
       </c>
@@ -4937,7 +5412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" ht="24" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>62</v>
       </c>
@@ -4973,7 +5448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" ht="24" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>63</v>
       </c>
@@ -5007,7 +5482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -5017,7 +5492,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -5027,7 +5502,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -5037,7 +5512,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -5047,7 +5522,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -5057,7 +5532,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -5067,7 +5542,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -5077,7 +5552,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -5087,7 +5562,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -5097,7 +5572,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -5116,4 +5591,619 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O22" sqref="A1:O22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="15" width="7.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0</v>
+      </c>
+      <c r="D2" s="14">
+        <v>8</v>
+      </c>
+      <c r="E2" s="14">
+        <v>3</v>
+      </c>
+      <c r="F2" s="14">
+        <v>3</v>
+      </c>
+      <c r="G2" s="14">
+        <v>1</v>
+      </c>
+      <c r="H2" s="14">
+        <v>2</v>
+      </c>
+      <c r="I2" s="14">
+        <v>2</v>
+      </c>
+      <c r="J2" s="14">
+        <v>4</v>
+      </c>
+      <c r="K2" s="14">
+        <v>3</v>
+      </c>
+      <c r="L2" s="14">
+        <v>5</v>
+      </c>
+      <c r="M2" s="14">
+        <v>0</v>
+      </c>
+      <c r="N2" s="14">
+        <v>6</v>
+      </c>
+      <c r="O2" s="14">
+        <f>SUM(C2:N2)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+    </row>
+    <row r="4" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14">
+        <f>-K2-C2-D2</f>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14">
+        <f>C2+F2-E2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14">
+        <f>D2-F2-G2-I2-H2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14">
+        <f>K2+G2-J2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14">
+        <f>F2+H2+M2-L2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14">
+        <f>I2+J2-M2-N2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14">
+        <f>L2+N2</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14">
+        <f>C2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14">
+        <v>8</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14">
+        <f>D2</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14">
+        <v>3</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14">
+        <f>E2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14">
+        <v>3</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14">
+        <f>F2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14">
+        <v>1</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14">
+        <f>G2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14">
+        <v>2</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14">
+        <f>H2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14">
+        <v>2</v>
+      </c>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14">
+        <f>I2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14">
+        <v>4</v>
+      </c>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14">
+        <f>J2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14">
+        <v>3</v>
+      </c>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14">
+        <f>K2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14">
+        <v>5</v>
+      </c>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14">
+        <f>L2</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14">
+        <v>0</v>
+      </c>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14">
+        <f>M2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14">
+        <v>6</v>
+      </c>
+      <c r="O22" s="14">
+        <f>N2</f>
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>